--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/非金融企业部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/非金融企业部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,43 +603,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.202196466742</v>
+        <v>949.7289100310149</v>
       </c>
       <c r="C2" t="n">
-        <v>16.15</v>
+        <v>59.0323641351089</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>18529.9248805589</v>
+        <v>83385.8162807897</v>
       </c>
       <c r="I2" t="n">
-        <v>1778.58673173868</v>
+        <v>14839.255097355</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>17152.6790137463</v>
+        <v>72069.17418174171</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>55402.6897680759</v>
+        <v>232106.166869459</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>17152.6790137463</v>
+        <v>72069.17418174171</v>
       </c>
       <c r="T2" t="n">
-        <v>2934.10519232725</v>
+        <v>5174.52257056832</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -651,59 +651,59 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>1022.318208672</v>
+        <v>1397.99882463</v>
       </c>
       <c r="AE2" t="n">
-        <v>279.202196466742</v>
+        <v>949.7289100310149</v>
       </c>
       <c r="AF2" t="n">
-        <v>2817.05494041068</v>
+        <v>16296.2862861201</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>2934.10519232725</v>
+        <v>5174.52257056832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.368190639646</v>
+        <v>1069.75901367445</v>
       </c>
       <c r="C3" t="n">
-        <v>23.75</v>
+        <v>61.9185772008848</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>21617.6812430769</v>
+        <v>94853.9304400471</v>
       </c>
       <c r="I3" t="n">
-        <v>1726.33855576089</v>
+        <v>19571.9001411125</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>19327.1857411158</v>
+        <v>78990.4669392526</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>62691.5598882715</v>
+        <v>274841.146288061</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>19327.1857411158</v>
+        <v>78990.4669392526</v>
       </c>
       <c r="T3" t="n">
-        <v>3442.76057631822</v>
+        <v>6219.44472476208</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -715,59 +715,59 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>752.5622893</v>
+        <v>1541.729575596</v>
       </c>
       <c r="AE3" t="n">
-        <v>311.368190639646</v>
+        <v>1069.75901367445</v>
       </c>
       <c r="AF3" t="n">
-        <v>2502.65084506089</v>
+        <v>21175.5482939094</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>3442.76057631822</v>
+        <v>6219.44472476208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.343447821453</v>
+        <v>1161.5780945014</v>
       </c>
       <c r="C4" t="n">
-        <v>19.68</v>
+        <v>64.4738614803713</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>23666.4874617846</v>
+        <v>97023.4707350675</v>
       </c>
       <c r="I4" t="n">
-        <v>1723.38879604311</v>
+        <v>22839.4651392211</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>21313.6204929304</v>
+        <v>78875.930407055</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>69966.7392711227</v>
+        <v>306220.341533832</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>21313.6204929304</v>
+        <v>78875.930407055</v>
       </c>
       <c r="T4" t="n">
-        <v>3651.56240519552</v>
+        <v>6622.54401217583</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -779,59 +779,59 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>1276.70869209</v>
+        <v>1857.60589413788</v>
       </c>
       <c r="AE4" t="n">
-        <v>390.343447821453</v>
+        <v>1161.5780945014</v>
       </c>
       <c r="AF4" t="n">
-        <v>3019.77748813311</v>
+        <v>24761.5448948394</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>3651.56240519552</v>
+        <v>6622.54401217583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>466.021150712957</v>
+        <v>1287.20098708682</v>
       </c>
       <c r="C5" t="n">
-        <v>31.7</v>
+        <v>77.363094852072</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>27132.2810882806</v>
+        <v>120826.027838797</v>
       </c>
       <c r="I5" t="n">
-        <v>1918.62270078795</v>
+        <v>21041.5027556356</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>24339.0906503602</v>
+        <v>100204.353552716</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>78679.21067142559</v>
+        <v>359277.103957086</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>24339.0906503602</v>
+        <v>100204.353552716</v>
       </c>
       <c r="T5" t="n">
-        <v>4037.37053745726</v>
+        <v>7707.34359611097</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -843,59 +843,59 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>1682.59735146</v>
+        <v>2378.76448709011</v>
       </c>
       <c r="AE5" t="n">
-        <v>466.021150712957</v>
+        <v>1287.20098708682</v>
       </c>
       <c r="AF5" t="n">
-        <v>3632.92005224795</v>
+        <v>23497.6303375777</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>4037.37053745726</v>
+        <v>7707.34359611097</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.861090234594</v>
+        <v>1233.18712417162</v>
       </c>
       <c r="C6" t="n">
-        <v>4.20466079958795</v>
+        <v>102.732724087957</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>36979.3359197073</v>
+        <v>137142.339830423</v>
       </c>
       <c r="I6" t="n">
-        <v>2241.54244480742</v>
+        <v>22932.7149879464</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>33246.6593306427</v>
+        <v>116262.28649402</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>95328.0156627965</v>
+        <v>392751.112892648</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>33246.6593306427</v>
+        <v>116262.28649402</v>
       </c>
       <c r="T6" t="n">
-        <v>1494.47405628342</v>
+        <v>8161.87595243448</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -907,59 +907,59 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>2249.125549104</v>
+        <v>3955.747196</v>
       </c>
       <c r="AE6" t="n">
-        <v>563.861090234594</v>
+        <v>1233.18712417162</v>
       </c>
       <c r="AF6" t="n">
-        <v>4494.87265471101</v>
+        <v>26991.1949080344</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>1494.47405628342</v>
+        <v>8161.87595243448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>632.40060579443</v>
+        <v>1254.13972129963</v>
       </c>
       <c r="C7" t="n">
-        <v>11.860861201224</v>
+        <v>130.625639655861</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>41532.178197499</v>
+        <v>135612.556730654</v>
       </c>
       <c r="I7" t="n">
-        <v>2545.89965666881</v>
+        <v>20403.2742265747</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>36987.8694527441</v>
+        <v>113178.219303534</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>110125.329586251</v>
+        <v>407653.516130301</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>36987.8694527441</v>
+        <v>113178.219303534</v>
       </c>
       <c r="T7" t="n">
-        <v>1781.96573481963</v>
+        <v>8750.59887493405</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -971,59 +971,59 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>3656.75409281317</v>
+        <v>4068.78645902498</v>
       </c>
       <c r="AE7" t="n">
-        <v>632.40060579443</v>
+        <v>1254.13972129963</v>
       </c>
       <c r="AF7" t="n">
-        <v>6214.51461068321</v>
+        <v>24602.6863252556</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>1781.96573481963</v>
+        <v>8750.59887493405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687.987235546541</v>
+        <v>1587.03132872388</v>
       </c>
       <c r="C8" t="n">
-        <v>27.1029409972343</v>
+        <v>133.351193928747</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>48192.5576485574</v>
+        <v>142007.613667875</v>
       </c>
       <c r="I8" t="n">
-        <v>4198.73123306021</v>
+        <v>20020.1911436883</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42687.1070711785</v>
+        <v>118441.705944903</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>128211.363216244</v>
+        <v>439384.591811445</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>42687.1070711785</v>
+        <v>118441.705944903</v>
       </c>
       <c r="T8" t="n">
-        <v>1965.08540190759</v>
+        <v>9002.0361225834</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1035,59 +1035,59 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>4786.55392937905</v>
+        <v>4696.13702785384</v>
       </c>
       <c r="AE8" t="n">
-        <v>687.987235546541</v>
+        <v>1587.03132872388</v>
       </c>
       <c r="AF8" t="n">
-        <v>9012.3881034365</v>
+        <v>24849.6793654709</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>1965.08540190759</v>
+        <v>9002.0361225834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>835.254194934308</v>
+        <v>1337.6312867158</v>
       </c>
       <c r="C9" t="n">
-        <v>79.74699387809881</v>
+        <v>117.700292095701</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>61525.4716431709</v>
+        <v>167271.588810734</v>
       </c>
       <c r="I9" t="n">
-        <v>5838.25391445139</v>
+        <v>20614.7736885982</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54207.9565469659</v>
+        <v>138998.671399896</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>156038.441900456</v>
+        <v>507106.965567504</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>54207.9565469659</v>
+        <v>138998.671399896</v>
       </c>
       <c r="T9" t="n">
-        <v>2507.65918760924</v>
+        <v>9884.90494472952</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1099,59 +1099,59 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>6778.17087080911</v>
+        <v>7180.55085029657</v>
       </c>
       <c r="AE9" t="n">
-        <v>835.254194934308</v>
+        <v>1337.6312867158</v>
       </c>
       <c r="AF9" t="n">
-        <v>12696.1717791386</v>
+        <v>27913.0248309905</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>2507.65918760924</v>
+        <v>9884.90494472952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1350.96753041491</v>
+        <v>1991.08515848744</v>
       </c>
       <c r="C10" t="n">
-        <v>79.5292963808937</v>
+        <v>130.390492235776</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>74609.24331982269</v>
+        <v>204713.634635044</v>
       </c>
       <c r="I10" t="n">
-        <v>8315.88298858571</v>
+        <v>21073.6583743777</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>65450.9350834667</v>
+        <v>173908.566987857</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>185950.296025578</v>
+        <v>576074.860916639</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>65450.9350834667</v>
+        <v>173908.566987857</v>
       </c>
       <c r="T10" t="n">
-        <v>3162.56915715007</v>
+        <v>11745.6665216678</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1163,59 +1163,59 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>6983.3466657</v>
+        <v>6475.12513610328</v>
       </c>
       <c r="AE10" t="n">
-        <v>1350.96753041491</v>
+        <v>1991.08515848744</v>
       </c>
       <c r="AF10" t="n">
-        <v>15378.7589506666</v>
+        <v>27679.1740027168</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>3162.56915715007</v>
+        <v>11745.6665216678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>969.4213898874031</v>
+        <v>2342.86277697077</v>
       </c>
       <c r="C11" t="n">
-        <v>55.7958843772338</v>
+        <v>138.874972266291</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>73275.1793525282</v>
+        <v>220044.022570015</v>
       </c>
       <c r="I11" t="n">
-        <v>8001.57292389614</v>
+        <v>21767.856284482</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>64171.0845933083</v>
+        <v>188666.762426289</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>197392.610105609</v>
+        <v>612164.970056277</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>64171.0845933083</v>
+        <v>188666.762426289</v>
       </c>
       <c r="T11" t="n">
-        <v>3817.29234893689</v>
+        <v>12889.7094648449</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -1227,59 +1227,59 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>6765.51707766</v>
+        <v>8435.17973239335</v>
       </c>
       <c r="AE11" t="n">
-        <v>969.4213898874031</v>
+        <v>2342.86277697077</v>
       </c>
       <c r="AF11" t="n">
-        <v>14822.8858859334</v>
+        <v>30341.9109891416</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>3817.29234893689</v>
+        <v>12889.7094648449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>949.7289100310149</v>
+        <v>2741.64864170419</v>
       </c>
       <c r="C12" t="n">
-        <v>59.0323641351089</v>
+        <v>175.37095645974</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>83385.8162807897</v>
+        <v>225802.826231047</v>
       </c>
       <c r="I12" t="n">
-        <v>14839.255097355</v>
+        <v>22643.7049168832</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>72069.17418174171</v>
+        <v>195203.175710047</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>232106.166869459</v>
+        <v>627480.7486861279</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>72069.17418174171</v>
+        <v>195203.175710047</v>
       </c>
       <c r="T12" t="n">
-        <v>5174.52257056832</v>
+        <v>14565.0244393315</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -1291,59 +1291,59 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>1397.99882463</v>
+        <v>7447.00799865684</v>
       </c>
       <c r="AE12" t="n">
-        <v>949.7289100310149</v>
+        <v>2741.64864170419</v>
       </c>
       <c r="AF12" t="n">
-        <v>16296.2862861201</v>
+        <v>30266.0838719998</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>5174.52257056832</v>
+        <v>14565.0244393315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1069.75901367445</v>
+        <v>2942.84442712894</v>
       </c>
       <c r="C13" t="n">
-        <v>61.9185772008848</v>
+        <v>212.42129106124</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>94853.9304400471</v>
+        <v>277033.831931379</v>
       </c>
       <c r="I13" t="n">
-        <v>19571.9001411125</v>
+        <v>26162.3755259039</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>78990.4669392526</v>
+        <v>240583.951905083</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>274841.146288061</v>
+        <v>726433.077645444</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>78990.4669392526</v>
+        <v>240583.951905083</v>
       </c>
       <c r="T13" t="n">
-        <v>6219.44472476208</v>
+        <v>14014.790854207</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1355,529 +1355,17 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>1541.729575596</v>
+        <v>11793.4012880054</v>
       </c>
       <c r="AE13" t="n">
-        <v>1069.75901367445</v>
+        <v>2942.84442712894</v>
       </c>
       <c r="AF13" t="n">
-        <v>21175.5482939094</v>
+        <v>38168.1981049706</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>6219.44472476208</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1161.5780945014</v>
-      </c>
-      <c r="C14" t="n">
-        <v>64.4738614803713</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>97023.4707350675</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22839.4651392211</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>78875.930407055</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>306220.341533832</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>78875.930407055</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6622.54401217583</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>1857.60589413788</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1161.5780945014</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24761.5448948394</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>6622.54401217583</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1287.20098708682</v>
-      </c>
-      <c r="C15" t="n">
-        <v>77.363094852072</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>120826.027838797</v>
-      </c>
-      <c r="I15" t="n">
-        <v>21041.5027556356</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>100204.353552716</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>359277.103957086</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>100204.353552716</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7707.34359611097</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>2378.76448709011</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1287.20098708682</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>23497.6303375777</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>7707.34359611097</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1233.18712417162</v>
-      </c>
-      <c r="C16" t="n">
-        <v>102.732724087957</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>137142.339830423</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22932.7149879464</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>116262.28649402</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>392751.112892648</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>116262.28649402</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8161.87595243448</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>3955.747196</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1233.18712417162</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>26991.1949080344</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>8161.87595243448</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1254.13972129963</v>
-      </c>
-      <c r="C17" t="n">
-        <v>130.625639655861</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>135612.556730654</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20403.2742265747</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>113178.219303534</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>407653.516130301</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>113178.219303534</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8750.59887493405</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>4068.78645902498</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1254.13972129963</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>24602.6863252556</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>8750.59887493405</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1587.03132872388</v>
-      </c>
-      <c r="C18" t="n">
-        <v>133.351193928747</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>142007.613667875</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20020.1911436883</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>118441.705944903</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>439384.591811445</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>118441.705944903</v>
-      </c>
-      <c r="T18" t="n">
-        <v>9002.0361225834</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>4696.13702785384</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1587.03132872388</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>24849.6793654709</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>9002.0361225834</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1337.6312867158</v>
-      </c>
-      <c r="C19" t="n">
-        <v>117.700292095701</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>167271.588810734</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20614.7736885982</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>138998.671399896</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>507106.965567504</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>138998.671399896</v>
-      </c>
-      <c r="T19" t="n">
-        <v>9884.90494472952</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>7180.55085029657</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1337.6312867158</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>27913.0248309905</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>9884.90494472952</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1991.08515848744</v>
-      </c>
-      <c r="C20" t="n">
-        <v>130.390492235776</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>204713.634635044</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21073.6583743777</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>173908.566987857</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>576074.860916639</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>173908.566987857</v>
-      </c>
-      <c r="T20" t="n">
-        <v>11745.6665216678</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>6475.12513610328</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1991.08515848744</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>27679.1740027168</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>11745.6665216678</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2342.86277697077</v>
-      </c>
-      <c r="C21" t="n">
-        <v>138.874972266291</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>220044.022570015</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21767.856284482</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>188666.762426289</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>612164.970056277</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>188666.762426289</v>
-      </c>
-      <c r="T21" t="n">
-        <v>12889.7094648449</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>8435.17973239335</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>2342.86277697077</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>30341.9109891416</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="n">
-        <v>12889.7094648449</v>
+        <v>14014.790854207</v>
       </c>
     </row>
   </sheetData>
